--- a/Ressources/SFCC/TestData/FROM_SFCC/3_updateAccount.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/3_updateAccount.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_ramos-izquierdo_groupeonepoint_com/Documents/Bureau/Clarins/Outils/clarins_auto_uat_ihm/Ressources/SFCC/TestData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="559" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1E40CB3-9FE1-4CAD-95D3-553FFB4FF8F4}"/>
+  <xr:revisionPtr revIDLastSave="635" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{839C978B-0980-4B07-AF47-1D99C6CBB050}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="48">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -77,30 +77,6 @@
     <t>BEL</t>
   </si>
   <si>
-    <t>UC1_SFCC_Create_Account_FRA_UAT</t>
-  </si>
-  <si>
-    <t>UC2_SFCC_Create_Account_USA_UAT</t>
-  </si>
-  <si>
-    <t>UC3_SFCC_Create_Account_ITA_UAT</t>
-  </si>
-  <si>
-    <t>UC4_SFCC_Create_Account_GBR_UAT</t>
-  </si>
-  <si>
-    <t>UC5_SFCC_Create_Account_CHE_UAT</t>
-  </si>
-  <si>
-    <t>UC6_SFCC_Create_Account_BEL_UAT</t>
-  </si>
-  <si>
-    <t>UC7_SFCC_Create_Account_LUX_UAT</t>
-  </si>
-  <si>
-    <t>UC8_SFCC_Create_Account_NLD_UAT</t>
-  </si>
-  <si>
     <t>LUX</t>
   </si>
   <si>
@@ -122,9 +98,6 @@
     <t xml:space="preserve">Incident car redirection sur URL FRA </t>
   </si>
   <si>
-    <t>UC9_SFCC_Create_Account_POL_UAT</t>
-  </si>
-  <si>
     <t>${firstName}</t>
   </si>
   <si>
@@ -134,9 +107,6 @@
     <t>${email}</t>
   </si>
   <si>
-    <t>${password}</t>
-  </si>
-  <si>
     <t>${birthDate}</t>
   </si>
   <si>
@@ -156,13 +126,67 @@
   </si>
   <si>
     <t>@{allCheckSystems}</t>
+  </si>
+  <si>
+    <t>UC1_SFCC_Update_Account_FRA_UAT</t>
+  </si>
+  <si>
+    <t>UC2_SFCC_Update_Account_USA_UAT</t>
+  </si>
+  <si>
+    <t>UC3_SFCC_Update_Account_ITA_UAT</t>
+  </si>
+  <si>
+    <t>UC4_SFCC_Update_Account_GBR_UAT</t>
+  </si>
+  <si>
+    <t>UC5_SFCC_Update_Account_CHE_UAT</t>
+  </si>
+  <si>
+    <t>UC6_SFCC_Update_Account_BEL_UAT</t>
+  </si>
+  <si>
+    <t>UC7_SFCC_Update_Account_LUX_UAT</t>
+  </si>
+  <si>
+    <t>UC8_SFCC_Update_Account_NLD_UAT</t>
+  </si>
+  <si>
+    <t>UC9_SFCC_Update_Account_POL_UAT</t>
+  </si>
+  <si>
+    <t>UC10_SFCC_Update_Account_AUT_UAT</t>
+  </si>
+  <si>
+    <t>UC11_SFCC_Update_Account_PRT_UAT</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>ayba6854mue02nbl@qq.com</t>
+  </si>
+  <si>
+    <t>UC12_SFCC_Update_Account_NZL_UAT</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>7j3fbmeel21g68bt@qq.com</t>
+  </si>
+  <si>
+    <t>UC13_SFCC_Update_Account_ARE_UAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -211,6 +235,34 @@
       <color rgb="FF000000"/>
       <name val="Aptos Display"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -281,10 +333,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -304,21 +357,42 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -393,6 +467,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -712,128 +790,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.19921875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="80.296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.796875" style="1"/>
+    <col min="1" max="1" width="49.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="76.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="11" customFormat="1" ht="19.05" customHeight="1">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="19.149999999999999" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>31</v>
+      <c r="C1" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="N1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="7"/>
     </row>
-    <row r="2" spans="1:15" ht="21">
-      <c r="A2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" ht="21">
+    <row r="3" spans="1:14">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="6"/>
@@ -843,332 +914,465 @@
       <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
-        <v>3</v>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="21">
+    <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="7"/>
+      <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:15" ht="21">
+    <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="M5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:15" ht="21">
+    <row r="6" spans="1:14">
       <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="M10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="7"/>
     </row>
-    <row r="7" spans="1:15" ht="21">
-      <c r="A7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>27</v>
-      </c>
+    <row r="11" spans="1:14">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="7"/>
     </row>
-    <row r="8" spans="1:15" ht="21">
-      <c r="A8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>27</v>
-      </c>
+    <row r="12" spans="1:14">
+      <c r="A12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="7"/>
     </row>
-    <row r="9" spans="1:15" ht="21">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="7"/>
+    <row r="13" spans="1:14">
+      <c r="A13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="7"/>
     </row>
-    <row r="10" spans="1:15" ht="21">
-      <c r="A10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="13" spans="1:15" ht="17.399999999999999">
-      <c r="O13" s="12"/>
+    <row r="14" spans="1:14">
+      <c r="A14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:L10">
+  <conditionalFormatting sqref="B2:K9 C10 D10:K14 B10:B14">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
@@ -1184,7 +1388,7 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2">
+  <conditionalFormatting sqref="L2">
     <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
@@ -1193,10 +1397,11 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="O3" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
+    <hyperlink ref="N3" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{CAACFB92-B8FF-418F-BB6B-C70F5FE0FF17}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Ressources/SFCC/TestData/FROM_SFCC/3_updateAccount.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/3_updateAccount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="635" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{839C978B-0980-4B07-AF47-1D99C6CBB050}"/>
+  <xr:revisionPtr revIDLastSave="663" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F50C1D9-68E7-479F-ADA8-CCEE9E7A01D4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
@@ -128,65 +128,65 @@
     <t>@{allCheckSystems}</t>
   </si>
   <si>
-    <t>UC1_SFCC_Update_Account_FRA_UAT</t>
-  </si>
-  <si>
-    <t>UC2_SFCC_Update_Account_USA_UAT</t>
-  </si>
-  <si>
-    <t>UC3_SFCC_Update_Account_ITA_UAT</t>
-  </si>
-  <si>
-    <t>UC4_SFCC_Update_Account_GBR_UAT</t>
-  </si>
-  <si>
-    <t>UC5_SFCC_Update_Account_CHE_UAT</t>
-  </si>
-  <si>
-    <t>UC6_SFCC_Update_Account_BEL_UAT</t>
-  </si>
-  <si>
-    <t>UC7_SFCC_Update_Account_LUX_UAT</t>
-  </si>
-  <si>
-    <t>UC8_SFCC_Update_Account_NLD_UAT</t>
-  </si>
-  <si>
-    <t>UC9_SFCC_Update_Account_POL_UAT</t>
-  </si>
-  <si>
-    <t>UC10_SFCC_Update_Account_AUT_UAT</t>
-  </si>
-  <si>
-    <t>UC11_SFCC_Update_Account_PRT_UAT</t>
-  </si>
-  <si>
     <t>AUT</t>
   </si>
   <si>
     <t>PRT</t>
   </si>
   <si>
-    <t>ayba6854mue02nbl@qq.com</t>
-  </si>
-  <si>
-    <t>UC12_SFCC_Update_Account_NZL_UAT</t>
-  </si>
-  <si>
     <t>NZL</t>
   </si>
   <si>
-    <t>7j3fbmeel21g68bt@qq.com</t>
-  </si>
-  <si>
-    <t>UC13_SFCC_Update_Account_ARE_UAT</t>
+    <t>qbs7s3a8ti@qq.com</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Update_Account_FRA</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Update_Account_USA</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Update_Account_ITA</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Update_Account_GBR</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Update_Account_CHE</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Update_Account_BEL</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Update_Account_LUX</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Update_Account_NLD</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Update_Account_POL</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Update_Account_AUT</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Update_Account_PRT</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Update_Account_NZL</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Update_Account_ARE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -257,14 +257,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFBCBEC4"/>
       <name val="JetBrains Mono"/>
@@ -333,11 +325,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -376,23 +367,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -793,14 +780,14 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="49.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.625" style="1" bestFit="1" customWidth="1"/>
@@ -822,7 +809,7 @@
       <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -860,8 +847,8 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="5" t="s">
-        <v>30</v>
+      <c r="A2" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
@@ -898,8 +885,8 @@
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="5" t="s">
-        <v>31</v>
+      <c r="A3" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -936,8 +923,8 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="5" t="s">
-        <v>32</v>
+      <c r="A4" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -974,8 +961,8 @@
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="5" t="s">
-        <v>33</v>
+      <c r="A5" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -1014,8 +1001,8 @@
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="5" t="s">
-        <v>34</v>
+      <c r="A6" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
@@ -1054,8 +1041,8 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="5" t="s">
-        <v>35</v>
+      <c r="A7" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>3</v>
@@ -1094,8 +1081,8 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="5" t="s">
-        <v>36</v>
+      <c r="A8" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
@@ -1134,8 +1121,8 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="5" t="s">
-        <v>37</v>
+      <c r="A9" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>3</v>
@@ -1172,8 +1159,8 @@
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="5" t="s">
-        <v>38</v>
+      <c r="A10" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>3</v>
@@ -1212,14 +1199,14 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="5" t="s">
-        <v>39</v>
+      <c r="A11" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>43</v>
+        <v>3</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>1</v>
@@ -1244,7 +1231,7 @@
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>15</v>
@@ -1252,13 +1239,13 @@
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="5" t="s">
-        <v>40</v>
+      <c r="A12" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -1284,7 +1271,7 @@
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>15</v>
@@ -1292,14 +1279,14 @@
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="5" t="s">
-        <v>44</v>
+      <c r="A13" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>46</v>
+      <c r="C13" s="14" t="s">
+        <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>1</v>
@@ -1324,7 +1311,7 @@
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="12" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>15</v>
@@ -1332,14 +1319,14 @@
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>46</v>
+        <v>4</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>1</v>
@@ -1364,7 +1351,7 @@
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="12" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>15</v>
@@ -1372,7 +1359,7 @@
       <c r="N14" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:K9 C10 D10:K14 B10:B14">
+  <conditionalFormatting sqref="B2:K13 B14 D14:K14">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
@@ -1398,10 +1385,9 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="N3" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{CAACFB92-B8FF-418F-BB6B-C70F5FE0FF17}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Ressources/SFCC/TestData/FROM_SFCC/3_updateAccount.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/3_updateAccount.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="663" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F50C1D9-68E7-479F-ADA8-CCEE9E7A01D4}"/>
+  <xr:revisionPtr revIDLastSave="683" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD547C4E-D28C-494E-B8CD-1F74CEC932C5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="54">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -180,6 +180,24 @@
   </si>
   <si>
     <t>contact_from_SFCC_to_STEP_for_Update_Account_ARE</t>
+  </si>
+  <si>
+    <t>Otilia5baokn0@qq.com</t>
+  </si>
+  <si>
+    <t>Grigoreurx4tr1@qq.com</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Update_Account_ROU</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Update_Account_SVK</t>
+  </si>
+  <si>
+    <t>SVK</t>
+  </si>
+  <si>
+    <t>ROU</t>
   </si>
 </sst>
 </file>
@@ -454,10 +472,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -777,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="21"/>
@@ -1323,7 +1337,7 @@
         <v>47</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>33</v>
@@ -1358,8 +1372,84 @@
       </c>
       <c r="N14" s="7"/>
     </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:K13 B14 D14:K14">
+  <conditionalFormatting sqref="B2:K13 B14:B16 D14:K14 D15:J16">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>

--- a/Ressources/SFCC/TestData/FROM_SFCC/3_updateAccount.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/3_updateAccount.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="683" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD547C4E-D28C-494E-B8CD-1F74CEC932C5}"/>
+  <xr:revisionPtr revIDLastSave="684" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ABF523D-34A5-43E6-9371-C4C82BF7369B}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -472,6 +472,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -793,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="21"/>
@@ -1377,7 +1381,7 @@
         <v>51</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>48</v>
@@ -1449,7 +1453,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:K13 B14:B16 D14:K14 D15:J16">
+  <conditionalFormatting sqref="B2:K13 D14:K14 D15:J16 B14:B16">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>

--- a/Ressources/SFCC/TestData/FROM_SFCC/3_updateAccount.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/3_updateAccount.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="684" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ABF523D-34A5-43E6-9371-C4C82BF7369B}"/>
+  <xr:revisionPtr revIDLastSave="692" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B15A99E-DDBC-4369-A5E7-4CEECD41AEC4}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="57">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -198,13 +199,22 @@
   </si>
   <si>
     <t>ROU</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Update_Account_MYS</t>
+  </si>
+  <si>
+    <t>MYS</t>
+  </si>
+  <si>
+    <t>Jay_kjhleyn_53@qq.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -280,6 +290,14 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -319,7 +337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -342,11 +360,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -396,11 +428,35 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -795,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="21"/>
@@ -866,13 +922,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>1</v>
@@ -883,605 +939,682 @@
       <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="H2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:K13 D14:K14 D15:J16 B14:B16">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2 D2:J2">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="3" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="23" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="22" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="24" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="N3" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
+    <hyperlink ref="C2" r:id="rId1" display="mailto:Jay_kjhleyn_53@qq.com" xr:uid="{CD55B5EF-F15D-4F2E-8C7F-B9696C5F31B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AE3530-151C-410F-8622-80DBF43C4F1A}">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="64.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="71.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A4" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A7" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A8" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A10" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A12" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A14" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A15" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:K12 D13:K13 B13:B15 D14:J15">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Ressources/SFCC/TestData/FROM_SFCC/3_updateAccount.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/3_updateAccount.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="692" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B15A99E-DDBC-4369-A5E7-4CEECD41AEC4}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{31E9FF35-4CBF-4BF2-909E-C4A6532E2EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{201DCA4D-C944-45F8-B071-067CEBE4146F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="-7335" yWindow="-17100" windowWidth="21600" windowHeight="11295" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="68">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -201,20 +201,53 @@
     <t>ROU</t>
   </si>
   <si>
+    <t>contact_from_SFCC_to_STEP_for_Update_Account_TWN</t>
+  </si>
+  <si>
+    <t>TWN</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Update_Account_CAN</t>
+  </si>
+  <si>
+    <t>Melissa_repenjw_46@qq.com</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Update_Account_SAU</t>
+  </si>
+  <si>
+    <t>SAU</t>
+  </si>
+  <si>
+    <t>Xdhb_cztfvrr_24@qq.com</t>
+  </si>
+  <si>
     <t>contact_from_SFCC_to_STEP_for_Update_Account_MYS</t>
   </si>
   <si>
     <t>MYS</t>
   </si>
   <si>
-    <t>Jay_kjhleyn_53@qq.com</t>
+    <t>Joshua_vzhvgmv_77@qq.com</t>
+  </si>
+  <si>
+    <t>Yixjunx_dvsefcp_45@qq.com</t>
+  </si>
+  <si>
+    <t>Kara_yesjbsk_92@qq.com</t>
+  </si>
+  <si>
+    <t>sarah_aggour_55@qq.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -298,6 +331,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -337,7 +383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -362,9 +408,24 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -378,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -428,15 +489,155 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -528,10 +729,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -851,17 +1048,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="66.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="15" customWidth="1"/>
     <col min="4" max="4" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.625" style="1" bestFit="1" customWidth="1"/>
@@ -921,74 +1118,189 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="25"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="B3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="L3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="25"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2 D2:J2">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+  <conditionalFormatting sqref="C1">
+    <cfRule type="cellIs" dxfId="19" priority="31" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="32" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="5" priority="23" operator="equal">
+  <conditionalFormatting sqref="D2:J2">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="mailto:Jay_kjhleyn_53@qq.com" xr:uid="{CD55B5EF-F15D-4F2E-8C7F-B9696C5F31B5}"/>
-  </hyperlinks>
+  <conditionalFormatting sqref="D4:K4">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:G3 B2:B5">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:J5">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AE3530-151C-410F-8622-80DBF43C4F1A}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1594,25 +1906,98 @@
       </c>
       <c r="N15" s="4"/>
     </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A16" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="L16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A17" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="25"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:K12 D13:K13 B13:B15 D14:J15">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="B13:B16 D16:G16">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:K12 D13:K13 D14:J15">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17 E17:G17">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
+    <hyperlink ref="C17" r:id="rId2" display="mailto:Xdhb_cztfvrr_24@qq.com" xr:uid="{CDC0BDCA-F015-4EF5-936F-F1F9726B371D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
